--- a/original/5-6_業務要件定義/5_業務要件定義プロセスガイド/業務要件定義プロセスフロー.xlsx
+++ b/original/5-6_業務要件定義/5_業務要件定義プロセスガイド/業務要件定義プロセスフロー.xlsx
@@ -14,7 +14,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">業務要件定義プロセスフロー!$A$1:$DE$121</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AI$36</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -26,16 +26,6 @@
   </si>
   <si>
     <t>2018年08月29日</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
     <phoneticPr fontId="11"/>
   </si>
   <si>
@@ -59,6 +49,13 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -15184,9 +15181,7 @@
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
-      <c r="R31" s="16" t="s">
-        <v>2</v>
-      </c>
+      <c r="R31" s="16"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
@@ -15315,12 +15310,12 @@
     <row r="35" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -15335,7 +15330,7 @@
       <c r="P35" s="18"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S35" s="18"/>
       <c r="T35" s="5"/>
@@ -15354,7 +15349,11 @@
       <c r="AG35" s="5"/>
       <c r="AH35" s="5"/>
     </row>
-    <row r="36" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="37" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15833,7 +15832,7 @@
     <hyperlink ref="E35" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -15854,7 +15853,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1"/>
     </row>
